--- a/DS trạng thái_ĐK kiểm tra XNCL TACN NK_v1.0_update.xlsx
+++ b/DS trạng thái_ĐK kiểm tra XNCL TACN NK_v1.0_update.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCQG-BNN\GD4\Cục Chăn nuôi_v1.1\DS chuyển trạng thái\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="DS trạng thái TACN" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="140">
   <si>
     <t>Chờ tiếp nhận</t>
   </si>
@@ -433,12 +428,18 @@
   </si>
   <si>
     <t xml:space="preserve">XML(17,15) </t>
+  </si>
+  <si>
+    <t>2a 2b</t>
+  </si>
+  <si>
+    <t>2c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -779,7 +780,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -814,7 +815,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1025,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1865,6 +1866,9 @@
       <c r="H40" s="14" t="s">
         <v>130</v>
       </c>
+      <c r="I40" s="5" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="41" spans="1:9" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
@@ -2190,6 +2194,9 @@
       <c r="G55" s="24"/>
       <c r="H55" s="12" t="s">
         <v>133</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
